--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Egf-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Egf-Egfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2711976666666667</v>
+        <v>0.1463976666666667</v>
       </c>
       <c r="H2">
-        <v>0.813593</v>
+        <v>0.439193</v>
       </c>
       <c r="I2">
-        <v>0.2043600193410237</v>
+        <v>0.1157910139257259</v>
       </c>
       <c r="J2">
-        <v>0.2043600193410237</v>
+        <v>0.115791013925726</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N2">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q2">
-        <v>0.42690038303</v>
+        <v>0.2491585320307778</v>
       </c>
       <c r="R2">
-        <v>3.84210344727</v>
+        <v>2.242426788277</v>
       </c>
       <c r="S2">
-        <v>0.004138009740653951</v>
+        <v>0.002438122090465728</v>
       </c>
       <c r="T2">
-        <v>0.004138009740653951</v>
+        <v>0.002438122090465728</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2711976666666667</v>
+        <v>0.1463976666666667</v>
       </c>
       <c r="H3">
-        <v>0.813593</v>
+        <v>0.439193</v>
       </c>
       <c r="I3">
-        <v>0.2043600193410237</v>
+        <v>0.1157910139257259</v>
       </c>
       <c r="J3">
-        <v>0.2043600193410237</v>
+        <v>0.115791013925726</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P3">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q3">
-        <v>16.950924583857</v>
+        <v>9.150431998257002</v>
       </c>
       <c r="R3">
-        <v>152.558321254713</v>
+        <v>82.353887984313</v>
       </c>
       <c r="S3">
-        <v>0.1643078662596598</v>
+        <v>0.0895408646471676</v>
       </c>
       <c r="T3">
-        <v>0.1643078662596598</v>
+        <v>0.08954086464716761</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2711976666666667</v>
+        <v>0.1463976666666667</v>
       </c>
       <c r="H4">
-        <v>0.813593</v>
+        <v>0.439193</v>
       </c>
       <c r="I4">
-        <v>0.2043600193410237</v>
+        <v>0.1157910139257259</v>
       </c>
       <c r="J4">
-        <v>0.2043600193410237</v>
+        <v>0.115791013925726</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N4">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q4">
-        <v>0.04960286682633334</v>
+        <v>0.06351740923900001</v>
       </c>
       <c r="R4">
-        <v>0.446425801437</v>
+        <v>0.571656683151</v>
       </c>
       <c r="S4">
-        <v>0.0004808080626090791</v>
+        <v>0.000621544834658233</v>
       </c>
       <c r="T4">
-        <v>0.0004808080626090791</v>
+        <v>0.0006215448346582332</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2711976666666667</v>
+        <v>0.1463976666666667</v>
       </c>
       <c r="H5">
-        <v>0.813593</v>
+        <v>0.439193</v>
       </c>
       <c r="I5">
-        <v>0.2043600193410237</v>
+        <v>0.1157910139257259</v>
       </c>
       <c r="J5">
-        <v>0.2043600193410237</v>
+        <v>0.115791013925726</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N5">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q5">
-        <v>3.630061946834889</v>
+        <v>2.338319748704</v>
       </c>
       <c r="R5">
-        <v>32.670557521514</v>
+        <v>21.044877738336</v>
       </c>
       <c r="S5">
-        <v>0.03518673745046608</v>
+        <v>0.0228814521719178</v>
       </c>
       <c r="T5">
-        <v>0.03518673745046608</v>
+        <v>0.02288145217191781</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2711976666666667</v>
+        <v>0.1463976666666667</v>
       </c>
       <c r="H6">
-        <v>0.813593</v>
+        <v>0.439193</v>
       </c>
       <c r="I6">
-        <v>0.2043600193410237</v>
+        <v>0.1157910139257259</v>
       </c>
       <c r="J6">
-        <v>0.2043600193410237</v>
+        <v>0.115791013925726</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N6">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q6">
-        <v>0.02544042031544444</v>
+        <v>0.03158066065722222</v>
       </c>
       <c r="R6">
-        <v>0.228963782839</v>
+        <v>0.284225945915</v>
       </c>
       <c r="S6">
-        <v>0.0002465978276347479</v>
+        <v>0.0003090301815165782</v>
       </c>
       <c r="T6">
-        <v>0.0002465978276347479</v>
+        <v>0.0003090301815165782</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.533021</v>
       </c>
       <c r="I7">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198567</v>
       </c>
       <c r="J7">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198568</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N7">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q7">
-        <v>0.8043914489100001</v>
+        <v>0.8696979731743335</v>
       </c>
       <c r="R7">
-        <v>7.239523040190001</v>
+        <v>7.827281758569001</v>
       </c>
       <c r="S7">
-        <v>0.007797087524876766</v>
+        <v>0.008510364157096904</v>
       </c>
       <c r="T7">
-        <v>0.007797087524876765</v>
+        <v>0.008510364157096906</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.533021</v>
       </c>
       <c r="I8">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198567</v>
       </c>
       <c r="J8">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198568</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P8">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q8">
         <v>31.93995444462901</v>
@@ -948,10 +948,10 @@
         <v>287.4595900016611</v>
       </c>
       <c r="S8">
-        <v>0.3095987913382367</v>
+        <v>0.312546023871659</v>
       </c>
       <c r="T8">
-        <v>0.3095987913382367</v>
+        <v>0.3125460238716591</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>1.533021</v>
       </c>
       <c r="I9">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198567</v>
       </c>
       <c r="J9">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198568</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N9">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q9">
-        <v>0.09346471332100002</v>
+        <v>0.2217100960830001</v>
       </c>
       <c r="R9">
-        <v>0.8411824198890001</v>
+        <v>1.995390864747</v>
       </c>
       <c r="S9">
-        <v>0.0009059675500514793</v>
+        <v>0.00216952748329914</v>
       </c>
       <c r="T9">
-        <v>0.0009059675500514791</v>
+        <v>0.00216952748329914</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.533021</v>
       </c>
       <c r="I10">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198567</v>
       </c>
       <c r="J10">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198568</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N10">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q10">
-        <v>6.839981656428669</v>
+        <v>8.162000030688002</v>
       </c>
       <c r="R10">
-        <v>61.55983490785801</v>
+        <v>73.45800027619201</v>
       </c>
       <c r="S10">
-        <v>0.0663009728857684</v>
+        <v>0.0798686379109995</v>
       </c>
       <c r="T10">
-        <v>0.06630097288576839</v>
+        <v>0.07986863791099953</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>1.533021</v>
       </c>
       <c r="I11">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198567</v>
       </c>
       <c r="J11">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198568</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N11">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q11">
-        <v>0.04793637432033334</v>
+        <v>0.1102335783616667</v>
       </c>
       <c r="R11">
-        <v>0.431427368883</v>
+        <v>0.9921022052550001</v>
       </c>
       <c r="S11">
-        <v>0.0004646544996312024</v>
+        <v>0.001078682396802149</v>
       </c>
       <c r="T11">
-        <v>0.0004646544996312024</v>
+        <v>0.001078682396802149</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.181472</v>
+        <v>0.1328766666666667</v>
       </c>
       <c r="H12">
-        <v>0.544416</v>
+        <v>0.39863</v>
       </c>
       <c r="I12">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="J12">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N12">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q12">
-        <v>0.28566051936</v>
+        <v>0.2261467410077778</v>
       </c>
       <c r="R12">
-        <v>2.57094467424</v>
+        <v>2.03532066907</v>
       </c>
       <c r="S12">
-        <v>0.002768950459219612</v>
+        <v>0.002212941938788535</v>
       </c>
       <c r="T12">
-        <v>0.002768950459219612</v>
+        <v>0.002212941938788535</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.181472</v>
+        <v>0.1328766666666667</v>
       </c>
       <c r="H13">
-        <v>0.544416</v>
+        <v>0.39863</v>
       </c>
       <c r="I13">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="J13">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>187.511841</v>
       </c>
       <c r="O13">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P13">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q13">
-        <v>11.342716269984</v>
+        <v>8.305316130870001</v>
       </c>
       <c r="R13">
-        <v>102.084446429856</v>
+        <v>74.74784517783</v>
       </c>
       <c r="S13">
-        <v>0.1099466579943768</v>
+        <v>0.08127104683886222</v>
       </c>
       <c r="T13">
-        <v>0.1099466579943768</v>
+        <v>0.08127104683886223</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.181472</v>
+        <v>0.1328766666666667</v>
       </c>
       <c r="H14">
-        <v>0.544416</v>
+        <v>0.39863</v>
       </c>
       <c r="I14">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="J14">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N14">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q14">
-        <v>0.033191773216</v>
+        <v>0.05765106649000001</v>
       </c>
       <c r="R14">
-        <v>0.298725958944</v>
+        <v>0.5188595984100001</v>
       </c>
       <c r="S14">
-        <v>0.000321732859320796</v>
+        <v>0.000564140178554329</v>
       </c>
       <c r="T14">
-        <v>0.000321732859320796</v>
+        <v>0.0005641401785543291</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.181472</v>
+        <v>0.1328766666666667</v>
       </c>
       <c r="H15">
-        <v>0.544416</v>
+        <v>0.39863</v>
       </c>
       <c r="I15">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="J15">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N15">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q15">
-        <v>2.429057040618667</v>
+        <v>2.12235714464</v>
       </c>
       <c r="R15">
-        <v>21.861513365568</v>
+        <v>19.10121430176</v>
       </c>
       <c r="S15">
-        <v>0.02354521591979398</v>
+        <v>0.020768166339836</v>
       </c>
       <c r="T15">
-        <v>0.02354521591979398</v>
+        <v>0.020768166339836</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.181472</v>
+        <v>0.1328766666666667</v>
       </c>
       <c r="H16">
-        <v>0.544416</v>
+        <v>0.39863</v>
       </c>
       <c r="I16">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="J16">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N16">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q16">
-        <v>0.01702346488533333</v>
+        <v>0.02866393307222222</v>
       </c>
       <c r="R16">
-        <v>0.153211183968</v>
+        <v>0.25797539765</v>
       </c>
       <c r="S16">
-        <v>0.0001650110103326834</v>
+        <v>0.0002804887629309974</v>
       </c>
       <c r="T16">
-        <v>0.0001650110103326834</v>
+        <v>0.0002804887629309974</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.276985</v>
+        <v>0.180116</v>
       </c>
       <c r="H17">
-        <v>0.830955</v>
+        <v>0.5403480000000001</v>
       </c>
       <c r="I17">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="J17">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N17">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O17">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P17">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q17">
-        <v>0.43601039805</v>
+        <v>0.3065447638413333</v>
       </c>
       <c r="R17">
-        <v>3.92409358245</v>
+        <v>2.758902874572</v>
       </c>
       <c r="S17">
-        <v>0.004226314488995239</v>
+        <v>0.002999670749167166</v>
       </c>
       <c r="T17">
-        <v>0.00422631448899524</v>
+        <v>0.002999670749167166</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.276985</v>
+        <v>0.180116</v>
       </c>
       <c r="H18">
-        <v>0.830955</v>
+        <v>0.5403480000000001</v>
       </c>
       <c r="I18">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="J18">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>187.511841</v>
       </c>
       <c r="O18">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P18">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q18">
-        <v>17.312655759795</v>
+        <v>11.257960917852</v>
       </c>
       <c r="R18">
-        <v>155.813901838155</v>
+        <v>101.321648260668</v>
       </c>
       <c r="S18">
-        <v>0.1678141810558788</v>
+        <v>0.1101639305051941</v>
       </c>
       <c r="T18">
-        <v>0.1678141810558789</v>
+        <v>0.1101639305051941</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.276985</v>
+        <v>0.180116</v>
       </c>
       <c r="H19">
-        <v>0.830955</v>
+        <v>0.5403480000000001</v>
       </c>
       <c r="I19">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="J19">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N19">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O19">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P19">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q19">
-        <v>0.050661387455</v>
+        <v>0.07814674880400002</v>
       </c>
       <c r="R19">
-        <v>0.455952487095</v>
+        <v>0.7033207392360001</v>
       </c>
       <c r="S19">
-        <v>0.0004910684625670665</v>
+        <v>0.0007646991375497946</v>
       </c>
       <c r="T19">
-        <v>0.0004910684625670665</v>
+        <v>0.0007646991375497947</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.276985</v>
+        <v>0.180116</v>
       </c>
       <c r="H20">
-        <v>0.830955</v>
+        <v>0.5403480000000001</v>
       </c>
       <c r="I20">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="J20">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N20">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O20">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P20">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q20">
-        <v>3.707527135843333</v>
+        <v>2.876881916544</v>
       </c>
       <c r="R20">
-        <v>33.36774422259</v>
+        <v>25.891937248896</v>
       </c>
       <c r="S20">
-        <v>0.0359376192004504</v>
+        <v>0.02815151179137974</v>
       </c>
       <c r="T20">
-        <v>0.0359376192004504</v>
+        <v>0.02815151179137974</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.276985</v>
+        <v>0.180116</v>
       </c>
       <c r="H21">
-        <v>0.830955</v>
+        <v>0.5403480000000001</v>
       </c>
       <c r="I21">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="J21">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N21">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O21">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P21">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q21">
-        <v>0.02598331655166666</v>
+        <v>0.03885432332666668</v>
       </c>
       <c r="R21">
-        <v>0.233849848965</v>
+        <v>0.3496889099400001</v>
       </c>
       <c r="S21">
-        <v>0.0002518602026593541</v>
+        <v>0.0003802060609393137</v>
       </c>
       <c r="T21">
-        <v>0.0002518602026593542</v>
+        <v>0.0003802060609393137</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.08639666666666668</v>
+        <v>0.2939293333333333</v>
       </c>
       <c r="H22">
-        <v>0.25919</v>
+        <v>0.881788</v>
       </c>
       <c r="I22">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512151</v>
       </c>
       <c r="J22">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512152</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N22">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O22">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P22">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q22">
-        <v>0.1359995849</v>
+        <v>0.5002470523035555</v>
       </c>
       <c r="R22">
-        <v>1.2239962641</v>
+        <v>4.502223470732</v>
       </c>
       <c r="S22">
-        <v>0.001318264469679678</v>
+        <v>0.004895129935831384</v>
       </c>
       <c r="T22">
-        <v>0.001318264469679678</v>
+        <v>0.004895129935831385</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.08639666666666668</v>
+        <v>0.2939293333333333</v>
       </c>
       <c r="H23">
-        <v>0.25919</v>
+        <v>0.881788</v>
       </c>
       <c r="I23">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512151</v>
       </c>
       <c r="J23">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512152</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>187.511841</v>
       </c>
       <c r="O23">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P23">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q23">
-        <v>5.400132674310001</v>
+        <v>18.371743472412</v>
       </c>
       <c r="R23">
-        <v>48.60119406879001</v>
+        <v>165.345691251708</v>
       </c>
       <c r="S23">
-        <v>0.05234429973689699</v>
+        <v>0.1797753150790122</v>
       </c>
       <c r="T23">
-        <v>0.052344299736897</v>
+        <v>0.1797753150790123</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.08639666666666668</v>
+        <v>0.2939293333333333</v>
       </c>
       <c r="H24">
-        <v>0.25919</v>
+        <v>0.881788</v>
       </c>
       <c r="I24">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512151</v>
       </c>
       <c r="J24">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512152</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N24">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O24">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P24">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q24">
-        <v>0.01580220952333334</v>
+        <v>0.127526825924</v>
       </c>
       <c r="R24">
-        <v>0.14221988571</v>
+        <v>1.147741433316</v>
       </c>
       <c r="S24">
-        <v>0.0001531731980826374</v>
+        <v>0.001247904171204035</v>
       </c>
       <c r="T24">
-        <v>0.0001531731980826374</v>
+        <v>0.001247904171204036</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.08639666666666668</v>
+        <v>0.2939293333333333</v>
       </c>
       <c r="H25">
-        <v>0.25919</v>
+        <v>0.881788</v>
       </c>
       <c r="I25">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512151</v>
       </c>
       <c r="J25">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512152</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N25">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O25">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P25">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q25">
-        <v>1.156445244735556</v>
+        <v>4.694752180864</v>
       </c>
       <c r="R25">
-        <v>10.40800720262</v>
+        <v>42.252769627776</v>
       </c>
       <c r="S25">
-        <v>0.0112095980174194</v>
+        <v>0.04594014464659285</v>
       </c>
       <c r="T25">
-        <v>0.0112095980174194</v>
+        <v>0.04594014464659286</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.08639666666666668</v>
+        <v>0.2939293333333333</v>
       </c>
       <c r="H26">
-        <v>0.25919</v>
+        <v>0.881788</v>
       </c>
       <c r="I26">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512151</v>
       </c>
       <c r="J26">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512152</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N26">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O26">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P26">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q26">
-        <v>0.008104669707777779</v>
+        <v>0.06340594590444444</v>
       </c>
       <c r="R26">
-        <v>0.07294202737000001</v>
+        <v>0.57065351314</v>
       </c>
       <c r="S26">
-        <v>7.855978473837693E-05</v>
+        <v>0.000620454118574614</v>
       </c>
       <c r="T26">
-        <v>7.855978473837693E-05</v>
+        <v>0.0006204541185746141</v>
       </c>
     </row>
   </sheetData>
